--- a/forecast_summary_B083NK82QJ.xlsx
+++ b/forecast_summary_B083NK82QJ.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
         <v>7.465204724198418</v>
       </c>
       <c r="D2" t="n">
-        <v>21.21683086841792</v>
+        <v>19.76916615774954</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -511,6 +516,9 @@
         <is>
           <t>H610I DDR4</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>5.179106774835654</v>
       </c>
       <c r="D3" t="n">
-        <v>18.07289976967465</v>
+        <v>17.12723830940814</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -547,6 +555,9 @@
         <is>
           <t>H610I DDR4</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>3.196037299408536</v>
       </c>
       <c r="D4" t="n">
-        <v>15.94407280192578</v>
+        <v>15.87062533337758</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -583,6 +594,9 @@
         <is>
           <t>H610I DDR4</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>1.89862365999434</v>
       </c>
       <c r="D5" t="n">
-        <v>14.81486856211257</v>
+        <v>15.75026674320233</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
@@ -619,6 +633,9 @@
         <is>
           <t>H610I DDR4</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,13 +643,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1.39558252923745</v>
       </c>
       <c r="D6" t="n">
-        <v>14.75334176340427</v>
+        <v>13.60598459076117</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
@@ -655,6 +672,9 @@
         <is>
           <t>H610I DDR4</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +682,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>2.127118990006541</v>
       </c>
       <c r="D7" t="n">
-        <v>15.69433632477434</v>
+        <v>14.38065999854415</v>
       </c>
       <c r="E7" t="n">
         <v>6</v>
@@ -691,6 +711,9 @@
         <is>
           <t>H610I DDR4</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>4.583825104476917</v>
       </c>
       <c r="D8" t="n">
-        <v>16.99550761176301</v>
+        <v>17.02623443464347</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -727,6 +750,9 @@
         <is>
           <t>H610I DDR4</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,13 +760,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
         <v>8.27666821663723</v>
       </c>
       <c r="D9" t="n">
-        <v>20.21362658413699</v>
+        <v>21.93475912517367</v>
       </c>
       <c r="E9" t="n">
         <v>6</v>
@@ -763,6 +789,9 @@
         <is>
           <t>H610I DDR4</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
         <v>11.33663229047326</v>
       </c>
       <c r="D10" t="n">
-        <v>24.60634380938096</v>
+        <v>24.17970148227057</v>
       </c>
       <c r="E10" t="n">
         <v>6</v>
@@ -799,6 +828,9 @@
         <is>
           <t>H610I DDR4</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>11.65296602455382</v>
       </c>
       <c r="D11" t="n">
-        <v>24.61366905861135</v>
+        <v>25.37815796406096</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -835,6 +867,9 @@
         <is>
           <t>H610I DDR4</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>8.696275042326747</v>
       </c>
       <c r="D12" t="n">
-        <v>20.61572757811151</v>
+        <v>20.6373482836325</v>
       </c>
       <c r="E12" t="n">
         <v>6</v>
@@ -871,6 +906,9 @@
         <is>
           <t>H610I DDR4</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -878,13 +916,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
         <v>4.183349256802222</v>
       </c>
       <c r="D13" t="n">
-        <v>16.35018921323487</v>
+        <v>17.55235006893259</v>
       </c>
       <c r="E13" t="n">
         <v>6</v>
@@ -907,6 +945,9 @@
         <is>
           <t>H610I DDR4</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>0.7732075471471388</v>
       </c>
       <c r="D14" t="n">
-        <v>13.07799355245232</v>
+        <v>13.13445254353107</v>
       </c>
       <c r="E14" t="n">
         <v>6</v>
@@ -943,6 +984,9 @@
         <is>
           <t>H610I DDR4</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-0.03353240966296257</v>
       </c>
       <c r="D15" t="n">
-        <v>12.82344893167079</v>
+        <v>12.94778977851286</v>
       </c>
       <c r="E15" t="n">
         <v>6</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>H610I DDR4</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>1.155192692625048</v>
       </c>
       <c r="D16" t="n">
-        <v>14.34058806380583</v>
+        <v>13.73710264646954</v>
       </c>
       <c r="E16" t="n">
         <v>6</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>H610I DDR4</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>2.550309690642141</v>
       </c>
       <c r="D17" t="n">
-        <v>16.55131298430209</v>
+        <v>15.84504618952805</v>
       </c>
       <c r="E17" t="n">
         <v>6</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>H610I DDR4</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>2.884072903130176</v>
       </c>
       <c r="D18" t="n">
-        <v>15.21607416969402</v>
+        <v>16.2164707590281</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>H610I DDR4</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>2.249226790171959</v>
       </c>
       <c r="D19" t="n">
-        <v>15.07227434721158</v>
+        <v>14.68418555984636</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>H610I DDR4</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>1.546686181801785</v>
       </c>
       <c r="D20" t="n">
-        <v>14.9942911463166</v>
+        <v>14.12430250359438</v>
       </c>
       <c r="E20" t="n">
         <v>6</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>H610I DDR4</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>1.403611772876941</v>
       </c>
       <c r="D21" t="n">
-        <v>15.31042475716143</v>
+        <v>14.81317416908263</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>H610I DDR4</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>155</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1433,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
